--- a/Ejemplo Medidas Dispersion.xlsx
+++ b/Ejemplo Medidas Dispersion.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t xml:space="preserve">Materias</t>
   </si>
@@ -107,10 +107,58 @@
     <t xml:space="preserve">Varianza</t>
   </si>
   <si>
+    <t xml:space="preserve">Varianza muestral</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mediana</t>
   </si>
   <si>
     <t xml:space="preserve">Desv. Estand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desv. Estand mues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desviacion tipica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coef vari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desv / prom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US 16000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desv est</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US 18000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US 1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US 9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US 1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
   </si>
 </sst>
 </file>
@@ -128,6 +176,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -149,6 +198,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -199,28 +249,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -355,144 +421,144 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>3.1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <f aca="false">SUM(C3:C6)</f>
         <v>16</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <f aca="false">AVERAGE(G3:G5)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <f aca="false">AVERAGE(B3:B6)</f>
         <v>3.775</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <f aca="false">ROUND(SUMPRODUCT(F3:F5,G3:G5) / SUM(F3:F5),1)</f>
         <v>3.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <f aca="false">SUMPRODUCT(B3:B6,C3:C6) / SUM(C3:C6)</f>
         <v>3.475</v>
       </c>
@@ -513,461 +579,574 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D6" colorId="64" zoomScale="253" zoomScaleNormal="253" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="253" zoomScaleNormal="253" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="A2" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <f aca="false">ABS(C2-$C$13)</f>
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <f aca="false">ABS(C2-$C$15)</f>
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <f aca="false">D2^2</f>
         <v>324</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="L2" s="2" t="n">
         <f aca="false">MAX(C10)-MIN(C2)</f>
         <v>43</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="A3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <f aca="false">ABS(C3-$C$13)</f>
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <f aca="false">ABS(C3-$C$15)</f>
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <f aca="false">D3^2</f>
         <v>100</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="n">
         <f aca="false">C3-C2</f>
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="n">
+      <c r="J3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="A4" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <f aca="false">ABS(C4-$C$13)</f>
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <f aca="false">ABS(C4-$C$15)</f>
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <f aca="false">D4^2</f>
         <v>49</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="n">
         <f aca="false">C4-C3</f>
         <v>3</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="n">
+      <c r="J4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="A5" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <f aca="false">ABS(C5-$C$13)</f>
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <f aca="false">ABS(C5-$C$15)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <f aca="false">D5^2</f>
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="n">
         <f aca="false">C5-C4</f>
         <v>1</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="n">
+      <c r="J5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="A6" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <f aca="false">ABS(C6-$C$13)</f>
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <f aca="false">ABS(C6-$C$15)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <f aca="false">D6^2</f>
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="n">
         <f aca="false">C6-C5</f>
         <v>2</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="n">
+      <c r="J6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="n">
         <v>6600</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="A7" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <f aca="false">ABS(C7-$C$13)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <f aca="false">ABS(C7-$C$15)</f>
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <f aca="false">D7^2</f>
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="n">
         <f aca="false">C7-C6</f>
         <v>4</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="n">
+      <c r="J7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="n">
         <v>6600</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="n">
+      <c r="A8" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <f aca="false">ABS(C8-$C$13)</f>
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <f aca="false">ABS(C8-$C$15)</f>
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <f aca="false">D8^2</f>
         <v>25</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="n">
         <f aca="false">C8-C7</f>
         <v>5</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="A9" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <f aca="false">ABS(C9-$C$13)</f>
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <f aca="false">ABS(C9-$C$15)</f>
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <f aca="false">D9^2</f>
         <v>225</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="n">
         <f aca="false">C9-C8</f>
         <v>10</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="n">
+      <c r="A10" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <f aca="false">ABS(C10-$C$13)</f>
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <f aca="false">ABS(C10-$C$15)</f>
         <v>29</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false">D10^2</f>
         <v>625</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="n">
         <f aca="false">C10-C9</f>
         <v>10</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <f aca="false">AVERAGE(G3:G10)</f>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="n">
+        <f aca="false">AVERAGE(I3:I10)</f>
         <v>5.375</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="n">
+      <c r="A13" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="n">
         <f aca="false">AVERAGE(C2:C10)</f>
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <f aca="false">AVERAGE(D2:D10)</f>
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <f aca="false">MEDIAN(E2:E10)</f>
         <v>6</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <f aca="false">MEDIAN(F2:F10)</f>
-        <v>49</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="F13" s="2" t="n">
+        <f aca="false">AVERAGE(F2:F10)</f>
+        <v>155.555555555556</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">SUM(F2:F10)/8</f>
+        <v>175</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="n">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="n">
         <f aca="false">MEDIAN(C2:C10)</f>
         <v>31</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="n">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="n">
         <f aca="false">SQRT(F13)</f>
-        <v>7</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+        <v>12.4721912892465</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <f aca="false">SQRT(G13)</f>
+        <v>13.228756555323</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <f aca="false">1500 / 500</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="2" t="n">
+        <f aca="false">18000/16000</f>
+        <v>1.125</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
